--- a/2022/Samsung/MARCH/27.03.2022/SAMSUNG Bank Statement March-2022.xlsx
+++ b/2022/Samsung/MARCH/27.03.2022/SAMSUNG Bank Statement March-2022.xlsx
@@ -3364,162 +3364,6 @@
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3534,23 +3378,8 @@
     <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="37" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="37" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="47" fillId="37" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="47" fillId="37" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3559,66 +3388,15 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="47" fillId="41" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="41" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="47" fillId="41" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="41" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="47" fillId="37" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3639,27 +3417,12 @@
     <xf numFmtId="0" fontId="5" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3682,6 +3445,243 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="32" fillId="43" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="47" fillId="41" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="47" fillId="41" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="47" fillId="37" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="47" fillId="37" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="47" fillId="37" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4141,33 +4141,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="327"/>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
+      <c r="A1" s="362"/>
+      <c r="B1" s="362"/>
+      <c r="C1" s="362"/>
+      <c r="D1" s="362"/>
+      <c r="E1" s="362"/>
+      <c r="F1" s="362"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="328"/>
-      <c r="B2" s="325" t="s">
+      <c r="A2" s="363"/>
+      <c r="B2" s="360" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="325"/>
-      <c r="D2" s="325"/>
-      <c r="E2" s="325"/>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="360"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="328"/>
-      <c r="B3" s="326" t="s">
+      <c r="A3" s="363"/>
+      <c r="B3" s="361" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
+      <c r="C3" s="361"/>
+      <c r="D3" s="361"/>
+      <c r="E3" s="361"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="328"/>
+      <c r="A4" s="363"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4185,7 +4185,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="328"/>
+      <c r="A5" s="363"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4203,7 +4203,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="328"/>
+      <c r="A6" s="363"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4215,7 +4215,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="328"/>
+      <c r="A7" s="363"/>
       <c r="B7" s="26" t="s">
         <v>44</v>
       </c>
@@ -4234,7 +4234,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="328"/>
+      <c r="A8" s="363"/>
       <c r="B8" s="26" t="s">
         <v>45</v>
       </c>
@@ -4253,7 +4253,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="328"/>
+      <c r="A9" s="363"/>
       <c r="B9" s="26" t="s">
         <v>47</v>
       </c>
@@ -4272,7 +4272,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="328"/>
+      <c r="A10" s="363"/>
       <c r="B10" s="26" t="s">
         <v>48</v>
       </c>
@@ -4291,7 +4291,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="328"/>
+      <c r="A11" s="363"/>
       <c r="B11" s="26" t="s">
         <v>49</v>
       </c>
@@ -4310,7 +4310,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="328"/>
+      <c r="A12" s="363"/>
       <c r="B12" s="26" t="s">
         <v>50</v>
       </c>
@@ -4329,7 +4329,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="328"/>
+      <c r="A13" s="363"/>
       <c r="B13" s="26" t="s">
         <v>51</v>
       </c>
@@ -4348,7 +4348,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="328"/>
+      <c r="A14" s="363"/>
       <c r="B14" s="26" t="s">
         <v>52</v>
       </c>
@@ -4367,7 +4367,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="328"/>
+      <c r="A15" s="363"/>
       <c r="B15" s="26" t="s">
         <v>53</v>
       </c>
@@ -4386,7 +4386,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="328"/>
+      <c r="A16" s="363"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4399,7 +4399,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="328"/>
+      <c r="A17" s="363"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4412,7 +4412,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="328"/>
+      <c r="A18" s="363"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4425,7 +4425,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="328"/>
+      <c r="A19" s="363"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4438,7 +4438,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="328"/>
+      <c r="A20" s="363"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4451,7 +4451,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="328"/>
+      <c r="A21" s="363"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4464,7 +4464,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="328"/>
+      <c r="A22" s="363"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4477,7 +4477,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="328"/>
+      <c r="A23" s="363"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4490,7 +4490,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="328"/>
+      <c r="A24" s="363"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4503,7 +4503,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="328"/>
+      <c r="A25" s="363"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4516,7 +4516,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="328"/>
+      <c r="A26" s="363"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4529,7 +4529,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="328"/>
+      <c r="A27" s="363"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4542,7 +4542,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="328"/>
+      <c r="A28" s="363"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4555,7 +4555,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="328"/>
+      <c r="A29" s="363"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4568,7 +4568,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="328"/>
+      <c r="A30" s="363"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4581,7 +4581,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="328"/>
+      <c r="A31" s="363"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4594,7 +4594,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="328"/>
+      <c r="A32" s="363"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4607,7 +4607,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="328"/>
+      <c r="A33" s="363"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4620,7 +4620,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="328"/>
+      <c r="A34" s="363"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4633,7 +4633,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="328"/>
+      <c r="A35" s="363"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4646,7 +4646,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="328"/>
+      <c r="A36" s="363"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4659,7 +4659,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="328"/>
+      <c r="A37" s="363"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4672,7 +4672,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="328"/>
+      <c r="A38" s="363"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4685,7 +4685,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="328"/>
+      <c r="A39" s="363"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4698,7 +4698,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="328"/>
+      <c r="A40" s="363"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4711,7 +4711,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="328"/>
+      <c r="A41" s="363"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4724,7 +4724,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="328"/>
+      <c r="A42" s="363"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4737,7 +4737,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="328"/>
+      <c r="A43" s="363"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4750,7 +4750,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="328"/>
+      <c r="A44" s="363"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4763,7 +4763,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="328"/>
+      <c r="A45" s="363"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4776,7 +4776,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="328"/>
+      <c r="A46" s="363"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4789,7 +4789,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="328"/>
+      <c r="A47" s="363"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4802,7 +4802,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="328"/>
+      <c r="A48" s="363"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4815,7 +4815,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="328"/>
+      <c r="A49" s="363"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4828,7 +4828,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="328"/>
+      <c r="A50" s="363"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4841,7 +4841,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="328"/>
+      <c r="A51" s="363"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4854,7 +4854,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="328"/>
+      <c r="A52" s="363"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4867,7 +4867,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="328"/>
+      <c r="A53" s="363"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4880,7 +4880,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="328"/>
+      <c r="A54" s="363"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4893,7 +4893,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="328"/>
+      <c r="A55" s="363"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4905,7 +4905,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="328"/>
+      <c r="A56" s="363"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4917,7 +4917,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="328"/>
+      <c r="A57" s="363"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4929,7 +4929,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="328"/>
+      <c r="A58" s="363"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4941,7 +4941,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="328"/>
+      <c r="A59" s="363"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4953,7 +4953,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="328"/>
+      <c r="A60" s="363"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4965,7 +4965,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="328"/>
+      <c r="A61" s="363"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4977,7 +4977,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="328"/>
+      <c r="A62" s="363"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4989,7 +4989,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="328"/>
+      <c r="A63" s="363"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -5001,7 +5001,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="328"/>
+      <c r="A64" s="363"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -5013,7 +5013,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="328"/>
+      <c r="A65" s="363"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -5025,7 +5025,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="328"/>
+      <c r="A66" s="363"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -5037,7 +5037,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="328"/>
+      <c r="A67" s="363"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -5049,7 +5049,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="328"/>
+      <c r="A68" s="363"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -5061,7 +5061,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="328"/>
+      <c r="A69" s="363"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -5073,7 +5073,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="328"/>
+      <c r="A70" s="363"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5085,7 +5085,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="328"/>
+      <c r="A71" s="363"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5097,7 +5097,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="328"/>
+      <c r="A72" s="363"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5109,7 +5109,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="328"/>
+      <c r="A73" s="363"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5121,7 +5121,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="328"/>
+      <c r="A74" s="363"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5133,7 +5133,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="328"/>
+      <c r="A75" s="363"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5145,7 +5145,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="328"/>
+      <c r="A76" s="363"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5157,7 +5157,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="328"/>
+      <c r="A77" s="363"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5169,7 +5169,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="328"/>
+      <c r="A78" s="363"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5181,7 +5181,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="328"/>
+      <c r="A79" s="363"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5193,7 +5193,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="328"/>
+      <c r="A80" s="363"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5205,7 +5205,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="328"/>
+      <c r="A81" s="363"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5217,7 +5217,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="328"/>
+      <c r="A82" s="363"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5229,7 +5229,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="328"/>
+      <c r="A83" s="363"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5287,45 +5287,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A1" s="393"/>
-      <c r="B1" s="393"/>
-      <c r="C1" s="393"/>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="393"/>
-      <c r="H1" s="393"/>
-      <c r="I1" s="393"/>
-      <c r="J1" s="393"/>
+      <c r="A1" s="371"/>
+      <c r="B1" s="371"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="371"/>
+      <c r="G1" s="371"/>
+      <c r="H1" s="371"/>
+      <c r="I1" s="371"/>
+      <c r="J1" s="371"/>
     </row>
     <row r="2" spans="1:10" ht="24" thickBot="1">
-      <c r="A2" s="410" t="s">
+      <c r="A2" s="369" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="411"/>
-      <c r="C2" s="409">
+      <c r="B2" s="370"/>
+      <c r="C2" s="340">
         <f>C93</f>
         <v>66500</v>
       </c>
-      <c r="D2" s="396"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
-      <c r="H2" s="393"/>
-      <c r="I2" s="393"/>
-      <c r="J2" s="393"/>
+      <c r="D2" s="372"/>
+      <c r="E2" s="371"/>
+      <c r="F2" s="371"/>
+      <c r="G2" s="371"/>
+      <c r="H2" s="371"/>
+      <c r="I2" s="371"/>
+      <c r="J2" s="371"/>
     </row>
     <row r="3" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A3" s="393"/>
-      <c r="B3" s="393"/>
-      <c r="C3" s="393"/>
-      <c r="D3" s="393"/>
-      <c r="E3" s="393"/>
-      <c r="F3" s="393"/>
-      <c r="G3" s="393"/>
-      <c r="H3" s="393"/>
-      <c r="I3" s="393"/>
-      <c r="J3" s="393"/>
+      <c r="A3" s="371"/>
+      <c r="B3" s="371"/>
+      <c r="C3" s="371"/>
+      <c r="D3" s="371"/>
+      <c r="E3" s="371"/>
+      <c r="F3" s="371"/>
+      <c r="G3" s="371"/>
+      <c r="H3" s="371"/>
+      <c r="I3" s="371"/>
+      <c r="J3" s="371"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="258" t="s">
@@ -5343,16 +5343,16 @@
       <c r="E4" s="258" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="390" t="s">
+      <c r="G4" s="333" t="s">
         <v>254</v>
       </c>
-      <c r="H4" s="392" t="s">
+      <c r="H4" s="335" t="s">
         <v>271</v>
       </c>
-      <c r="I4" s="391" t="s">
+      <c r="I4" s="334" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="392" t="s">
+      <c r="J4" s="335" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5368,16 +5368,16 @@
       </c>
       <c r="D5" s="257"/>
       <c r="E5" s="313"/>
-      <c r="G5" s="388">
+      <c r="G5" s="373">
         <v>44684</v>
       </c>
-      <c r="H5" s="386" t="s">
+      <c r="H5" s="331" t="s">
         <v>245</v>
       </c>
-      <c r="I5" s="384">
+      <c r="I5" s="375">
         <v>15000</v>
       </c>
-      <c r="J5" s="397"/>
+      <c r="J5" s="378"/>
     </row>
     <row r="6" spans="1:10" ht="14.25">
       <c r="A6" s="305" t="s">
@@ -5391,12 +5391,12 @@
       </c>
       <c r="D6" s="257"/>
       <c r="E6" s="313"/>
-      <c r="G6" s="388"/>
-      <c r="H6" s="386" t="s">
+      <c r="G6" s="373"/>
+      <c r="H6" s="331" t="s">
         <v>246</v>
       </c>
-      <c r="I6" s="384"/>
-      <c r="J6" s="398"/>
+      <c r="I6" s="375"/>
+      <c r="J6" s="379"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="305" t="s">
@@ -5410,12 +5410,12 @@
       </c>
       <c r="D7" s="257"/>
       <c r="E7" s="313"/>
-      <c r="G7" s="389"/>
-      <c r="H7" s="387" t="s">
+      <c r="G7" s="374"/>
+      <c r="H7" s="332" t="s">
         <v>247</v>
       </c>
-      <c r="I7" s="385"/>
-      <c r="J7" s="399"/>
+      <c r="I7" s="382"/>
+      <c r="J7" s="380"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1">
       <c r="A8" s="305" t="s">
@@ -5427,16 +5427,16 @@
       </c>
       <c r="D8" s="257"/>
       <c r="E8" s="313"/>
-      <c r="G8" s="388">
+      <c r="G8" s="373">
         <v>44684</v>
       </c>
-      <c r="H8" s="386" t="s">
+      <c r="H8" s="331" t="s">
         <v>248</v>
       </c>
-      <c r="I8" s="384">
+      <c r="I8" s="375">
         <v>5500</v>
       </c>
-      <c r="J8" s="397"/>
+      <c r="J8" s="378"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="A9" s="305" t="s">
@@ -5448,12 +5448,12 @@
       </c>
       <c r="D9" s="257"/>
       <c r="E9" s="313"/>
-      <c r="G9" s="388"/>
-      <c r="H9" s="386" t="s">
+      <c r="G9" s="373"/>
+      <c r="H9" s="331" t="s">
         <v>249</v>
       </c>
-      <c r="I9" s="384"/>
-      <c r="J9" s="398"/>
+      <c r="I9" s="375"/>
+      <c r="J9" s="379"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
       <c r="A10" s="305" t="s">
@@ -5465,12 +5465,12 @@
       </c>
       <c r="D10" s="257"/>
       <c r="E10" s="313"/>
-      <c r="G10" s="389"/>
-      <c r="H10" s="387" t="s">
+      <c r="G10" s="374"/>
+      <c r="H10" s="332" t="s">
         <v>247</v>
       </c>
-      <c r="I10" s="385"/>
-      <c r="J10" s="399"/>
+      <c r="I10" s="382"/>
+      <c r="J10" s="380"/>
     </row>
     <row r="11" spans="1:10" ht="14.25">
       <c r="A11" s="305"/>
@@ -5478,16 +5478,16 @@
       <c r="C11" s="305"/>
       <c r="D11" s="257"/>
       <c r="E11" s="313"/>
-      <c r="G11" s="388">
+      <c r="G11" s="373">
         <v>44684</v>
       </c>
-      <c r="H11" s="386" t="s">
+      <c r="H11" s="331" t="s">
         <v>250</v>
       </c>
-      <c r="I11" s="384">
+      <c r="I11" s="375">
         <v>5000</v>
       </c>
-      <c r="J11" s="397"/>
+      <c r="J11" s="378"/>
     </row>
     <row r="12" spans="1:10" ht="14.25">
       <c r="A12" s="257"/>
@@ -5495,12 +5495,12 @@
       <c r="C12" s="257"/>
       <c r="D12" s="257"/>
       <c r="E12" s="313"/>
-      <c r="G12" s="388"/>
-      <c r="H12" s="386" t="s">
+      <c r="G12" s="373"/>
+      <c r="H12" s="331" t="s">
         <v>246</v>
       </c>
-      <c r="I12" s="384"/>
-      <c r="J12" s="398"/>
+      <c r="I12" s="375"/>
+      <c r="J12" s="379"/>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1">
       <c r="A13" s="305"/>
@@ -5508,12 +5508,12 @@
       <c r="C13" s="305"/>
       <c r="D13" s="257"/>
       <c r="E13" s="313"/>
-      <c r="G13" s="389"/>
-      <c r="H13" s="387" t="s">
+      <c r="G13" s="374"/>
+      <c r="H13" s="332" t="s">
         <v>257</v>
       </c>
-      <c r="I13" s="385"/>
-      <c r="J13" s="399"/>
+      <c r="I13" s="382"/>
+      <c r="J13" s="380"/>
     </row>
     <row r="14" spans="1:10" ht="14.25">
       <c r="A14" s="257" t="s">
@@ -5527,16 +5527,16 @@
       </c>
       <c r="D14" s="257"/>
       <c r="E14" s="313"/>
-      <c r="G14" s="388">
+      <c r="G14" s="373">
         <v>44684</v>
       </c>
-      <c r="H14" s="386" t="s">
+      <c r="H14" s="331" t="s">
         <v>251</v>
       </c>
-      <c r="I14" s="384">
+      <c r="I14" s="375">
         <v>3000</v>
       </c>
-      <c r="J14" s="397"/>
+      <c r="J14" s="378"/>
     </row>
     <row r="15" spans="1:10" ht="14.25">
       <c r="A15" s="257" t="s">
@@ -5550,12 +5550,12 @@
       </c>
       <c r="D15" s="257"/>
       <c r="E15" s="313"/>
-      <c r="G15" s="388"/>
-      <c r="H15" s="386" t="s">
+      <c r="G15" s="373"/>
+      <c r="H15" s="331" t="s">
         <v>252</v>
       </c>
-      <c r="I15" s="384"/>
-      <c r="J15" s="398"/>
+      <c r="I15" s="375"/>
+      <c r="J15" s="379"/>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="257" t="s">
@@ -5569,12 +5569,12 @@
       </c>
       <c r="D16" s="257"/>
       <c r="E16" s="313"/>
-      <c r="G16" s="389"/>
-      <c r="H16" s="387" t="s">
+      <c r="G16" s="374"/>
+      <c r="H16" s="332" t="s">
         <v>253</v>
       </c>
-      <c r="I16" s="384"/>
-      <c r="J16" s="399"/>
+      <c r="I16" s="375"/>
+      <c r="J16" s="380"/>
     </row>
     <row r="17" spans="1:10" ht="14.25">
       <c r="A17" s="257" t="s">
@@ -5588,16 +5588,16 @@
       </c>
       <c r="D17" s="257"/>
       <c r="E17" s="313"/>
-      <c r="G17" s="388" t="s">
+      <c r="G17" s="373" t="s">
         <v>263</v>
       </c>
-      <c r="H17" s="386" t="s">
+      <c r="H17" s="331" t="s">
         <v>251</v>
       </c>
-      <c r="I17" s="383">
+      <c r="I17" s="381">
         <v>18000</v>
       </c>
-      <c r="J17" s="397"/>
+      <c r="J17" s="378"/>
     </row>
     <row r="18" spans="1:10" ht="14.25">
       <c r="A18" s="257" t="s">
@@ -5611,12 +5611,12 @@
       </c>
       <c r="D18" s="257"/>
       <c r="E18" s="313"/>
-      <c r="G18" s="388"/>
-      <c r="H18" s="386" t="s">
+      <c r="G18" s="373"/>
+      <c r="H18" s="331" t="s">
         <v>261</v>
       </c>
-      <c r="I18" s="384"/>
-      <c r="J18" s="398"/>
+      <c r="I18" s="375"/>
+      <c r="J18" s="379"/>
     </row>
     <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="257" t="s">
@@ -5630,12 +5630,12 @@
       </c>
       <c r="D19" s="257"/>
       <c r="E19" s="313"/>
-      <c r="G19" s="389"/>
-      <c r="H19" s="387" t="s">
+      <c r="G19" s="374"/>
+      <c r="H19" s="332" t="s">
         <v>262</v>
       </c>
-      <c r="I19" s="385"/>
-      <c r="J19" s="399"/>
+      <c r="I19" s="382"/>
+      <c r="J19" s="380"/>
     </row>
     <row r="20" spans="1:10" ht="14.25">
       <c r="A20" s="257" t="s">
@@ -5649,16 +5649,16 @@
       </c>
       <c r="D20" s="257"/>
       <c r="E20" s="313"/>
-      <c r="G20" s="388" t="s">
+      <c r="G20" s="373" t="s">
         <v>263</v>
       </c>
-      <c r="H20" s="386" t="s">
+      <c r="H20" s="331" t="s">
         <v>251</v>
       </c>
-      <c r="I20" s="384">
+      <c r="I20" s="375">
         <v>7500</v>
       </c>
-      <c r="J20" s="397"/>
+      <c r="J20" s="378"/>
     </row>
     <row r="21" spans="1:10" ht="14.25">
       <c r="A21" s="257" t="s">
@@ -5672,12 +5672,12 @@
       </c>
       <c r="D21" s="257"/>
       <c r="E21" s="313"/>
-      <c r="G21" s="388"/>
-      <c r="H21" s="386" t="s">
+      <c r="G21" s="373"/>
+      <c r="H21" s="331" t="s">
         <v>264</v>
       </c>
-      <c r="I21" s="384"/>
-      <c r="J21" s="398"/>
+      <c r="I21" s="375"/>
+      <c r="J21" s="379"/>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="257" t="s">
@@ -5691,12 +5691,12 @@
       </c>
       <c r="D22" s="257"/>
       <c r="E22" s="313"/>
-      <c r="G22" s="389"/>
-      <c r="H22" s="387" t="s">
+      <c r="G22" s="374"/>
+      <c r="H22" s="332" t="s">
         <v>262</v>
       </c>
-      <c r="I22" s="385"/>
-      <c r="J22" s="399"/>
+      <c r="I22" s="382"/>
+      <c r="J22" s="380"/>
     </row>
     <row r="23" spans="1:10" ht="14.25">
       <c r="A23" s="257" t="s">
@@ -5710,16 +5710,16 @@
       </c>
       <c r="D23" s="257"/>
       <c r="E23" s="313"/>
-      <c r="G23" s="388" t="s">
+      <c r="G23" s="373" t="s">
         <v>263</v>
       </c>
-      <c r="H23" s="386" t="s">
+      <c r="H23" s="331" t="s">
         <v>265</v>
       </c>
-      <c r="I23" s="384">
+      <c r="I23" s="375">
         <v>1000</v>
       </c>
-      <c r="J23" s="397"/>
+      <c r="J23" s="378"/>
     </row>
     <row r="24" spans="1:10" ht="14.25">
       <c r="A24" s="257" t="s">
@@ -5733,12 +5733,12 @@
       </c>
       <c r="D24" s="257"/>
       <c r="E24" s="313"/>
-      <c r="G24" s="388"/>
-      <c r="H24" s="386" t="s">
+      <c r="G24" s="373"/>
+      <c r="H24" s="331" t="s">
         <v>266</v>
       </c>
-      <c r="I24" s="384"/>
-      <c r="J24" s="398"/>
+      <c r="I24" s="375"/>
+      <c r="J24" s="379"/>
     </row>
     <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="257" t="s">
@@ -5752,12 +5752,12 @@
       </c>
       <c r="D25" s="257"/>
       <c r="E25" s="313"/>
-      <c r="G25" s="389"/>
-      <c r="H25" s="387" t="s">
+      <c r="G25" s="374"/>
+      <c r="H25" s="332" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="385"/>
-      <c r="J25" s="399"/>
+      <c r="I25" s="382"/>
+      <c r="J25" s="380"/>
     </row>
     <row r="26" spans="1:10" ht="14.25">
       <c r="A26" s="257" t="s">
@@ -5771,16 +5771,16 @@
       </c>
       <c r="D26" s="257"/>
       <c r="E26" s="313"/>
-      <c r="G26" s="402" t="s">
+      <c r="G26" s="364" t="s">
         <v>263</v>
       </c>
-      <c r="H26" s="403" t="s">
+      <c r="H26" s="338" t="s">
         <v>245</v>
       </c>
-      <c r="I26" s="404">
+      <c r="I26" s="366">
         <v>-2000</v>
       </c>
-      <c r="J26" s="404" t="s">
+      <c r="J26" s="366" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5800,12 +5800,12 @@
       <c r="E27" s="313">
         <v>357484290824718</v>
       </c>
-      <c r="G27" s="402"/>
-      <c r="H27" s="403" t="s">
+      <c r="G27" s="364"/>
+      <c r="H27" s="338" t="s">
         <v>268</v>
       </c>
-      <c r="I27" s="405"/>
-      <c r="J27" s="405"/>
+      <c r="I27" s="367"/>
+      <c r="J27" s="367"/>
     </row>
     <row r="28" spans="1:10" ht="15" thickBot="1">
       <c r="A28" s="257" t="s">
@@ -5821,12 +5821,12 @@
         <v>197</v>
       </c>
       <c r="E28" s="313"/>
-      <c r="G28" s="406"/>
-      <c r="H28" s="407" t="s">
+      <c r="G28" s="365"/>
+      <c r="H28" s="339" t="s">
         <v>269</v>
       </c>
-      <c r="I28" s="408"/>
-      <c r="J28" s="408"/>
+      <c r="I28" s="368"/>
+      <c r="J28" s="368"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1">
       <c r="A29" s="257" t="s">
@@ -5842,15 +5842,15 @@
         <v>199</v>
       </c>
       <c r="E29" s="313"/>
-      <c r="G29" s="394" t="s">
+      <c r="G29" s="376" t="s">
         <v>258</v>
       </c>
-      <c r="H29" s="395"/>
-      <c r="I29" s="401">
+      <c r="H29" s="377"/>
+      <c r="I29" s="337">
         <f>SUM(I5:I28)</f>
         <v>53000</v>
       </c>
-      <c r="J29" s="400"/>
+      <c r="J29" s="336"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="257" t="s">
@@ -5999,24 +5999,24 @@
       <c r="E39" s="313"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="430" t="s">
+      <c r="A40" s="351" t="s">
         <v>239</v>
       </c>
-      <c r="B40" s="430" t="s">
+      <c r="B40" s="351" t="s">
         <v>243</v>
       </c>
-      <c r="C40" s="430">
+      <c r="C40" s="351">
         <v>20000</v>
       </c>
-      <c r="D40" s="430"/>
-      <c r="E40" s="431"/>
+      <c r="D40" s="351"/>
+      <c r="E40" s="352"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="305"/>
       <c r="B41" s="305"/>
       <c r="C41" s="305"/>
       <c r="D41" s="305"/>
-      <c r="E41" s="379"/>
+      <c r="E41" s="327"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="257"/>
@@ -6390,14 +6390,7 @@
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="29">
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="J8:J10"/>
@@ -6414,11 +6407,18 @@
     <mergeCell ref="J23:J25"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="I14:I16"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="I8:I10"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="I11:I13"/>
-    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6447,33 +6447,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="327"/>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
+      <c r="A1" s="362"/>
+      <c r="B1" s="362"/>
+      <c r="C1" s="362"/>
+      <c r="D1" s="362"/>
+      <c r="E1" s="362"/>
+      <c r="F1" s="362"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="328"/>
-      <c r="B2" s="325" t="s">
+      <c r="A2" s="363"/>
+      <c r="B2" s="360" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="325"/>
-      <c r="D2" s="325"/>
-      <c r="E2" s="325"/>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="360"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="328"/>
-      <c r="B3" s="326" t="s">
+      <c r="A3" s="363"/>
+      <c r="B3" s="361" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
+      <c r="C3" s="361"/>
+      <c r="D3" s="361"/>
+      <c r="E3" s="361"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="328"/>
+      <c r="A4" s="363"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -6491,7 +6491,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="328"/>
+      <c r="A5" s="363"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -6509,7 +6509,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="328"/>
+      <c r="A6" s="363"/>
       <c r="B6" s="26"/>
       <c r="C6" s="243"/>
       <c r="D6" s="243"/>
@@ -6521,7 +6521,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="328"/>
+      <c r="A7" s="363"/>
       <c r="B7" s="26" t="s">
         <v>134</v>
       </c>
@@ -6539,7 +6539,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="328"/>
+      <c r="A8" s="363"/>
       <c r="B8" s="26" t="s">
         <v>144</v>
       </c>
@@ -6559,7 +6559,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="328"/>
+      <c r="A9" s="363"/>
       <c r="B9" s="26" t="s">
         <v>150</v>
       </c>
@@ -6577,7 +6577,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="328"/>
+      <c r="A10" s="363"/>
       <c r="B10" s="26"/>
       <c r="C10" s="245"/>
       <c r="D10" s="245"/>
@@ -6589,7 +6589,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="328"/>
+      <c r="A11" s="363"/>
       <c r="B11" s="26" t="s">
         <v>154</v>
       </c>
@@ -6607,7 +6607,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="328"/>
+      <c r="A12" s="363"/>
       <c r="B12" s="26" t="s">
         <v>156</v>
       </c>
@@ -6627,7 +6627,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="328"/>
+      <c r="A13" s="363"/>
       <c r="B13" s="26" t="s">
         <v>159</v>
       </c>
@@ -6647,7 +6647,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="328"/>
+      <c r="A14" s="363"/>
       <c r="B14" s="26" t="s">
         <v>164</v>
       </c>
@@ -6665,7 +6665,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="328"/>
+      <c r="A15" s="363"/>
       <c r="B15" s="26" t="s">
         <v>168</v>
       </c>
@@ -6683,7 +6683,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="328"/>
+      <c r="A16" s="363"/>
       <c r="B16" s="26" t="s">
         <v>170</v>
       </c>
@@ -6701,7 +6701,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="328"/>
+      <c r="A17" s="363"/>
       <c r="B17" s="26" t="s">
         <v>180</v>
       </c>
@@ -6719,7 +6719,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="328"/>
+      <c r="A18" s="363"/>
       <c r="B18" s="26" t="s">
         <v>181</v>
       </c>
@@ -6737,7 +6737,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="328"/>
+      <c r="A19" s="363"/>
       <c r="B19" s="26" t="s">
         <v>182</v>
       </c>
@@ -6755,7 +6755,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="328"/>
+      <c r="A20" s="363"/>
       <c r="B20" s="26" t="s">
         <v>191</v>
       </c>
@@ -6773,7 +6773,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="328"/>
+      <c r="A21" s="363"/>
       <c r="B21" s="26" t="s">
         <v>192</v>
       </c>
@@ -6791,7 +6791,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="328"/>
+      <c r="A22" s="363"/>
       <c r="B22" s="26" t="s">
         <v>196</v>
       </c>
@@ -6809,7 +6809,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="328"/>
+      <c r="A23" s="363"/>
       <c r="B23" s="26" t="s">
         <v>206</v>
       </c>
@@ -6827,7 +6827,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="328"/>
+      <c r="A24" s="363"/>
       <c r="B24" s="26" t="s">
         <v>209</v>
       </c>
@@ -6845,7 +6845,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="328"/>
+      <c r="A25" s="363"/>
       <c r="B25" s="26" t="s">
         <v>212</v>
       </c>
@@ -6863,7 +6863,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="328"/>
+      <c r="A26" s="363"/>
       <c r="B26" s="26" t="s">
         <v>216</v>
       </c>
@@ -6881,7 +6881,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="328"/>
+      <c r="A27" s="363"/>
       <c r="B27" s="26" t="s">
         <v>223</v>
       </c>
@@ -6898,12 +6898,12 @@
       <c r="F27" s="324" t="s">
         <v>238</v>
       </c>
-      <c r="G27" s="380" t="s">
+      <c r="G27" s="328" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="328"/>
+      <c r="A28" s="363"/>
       <c r="B28" s="26" t="s">
         <v>235</v>
       </c>
@@ -6921,7 +6921,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="328"/>
+      <c r="A29" s="363"/>
       <c r="B29" s="26" t="s">
         <v>239</v>
       </c>
@@ -6938,12 +6938,12 @@
       <c r="F29" s="324" t="s">
         <v>238</v>
       </c>
-      <c r="G29" s="380" t="s">
+      <c r="G29" s="328" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="328"/>
+      <c r="A30" s="363"/>
       <c r="B30" s="26" t="s">
         <v>239</v>
       </c>
@@ -6961,7 +6961,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="328"/>
+      <c r="A31" s="363"/>
       <c r="B31" s="26"/>
       <c r="C31" s="243"/>
       <c r="D31" s="243"/>
@@ -6973,7 +6973,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="328"/>
+      <c r="A32" s="363"/>
       <c r="B32" s="26"/>
       <c r="C32" s="243"/>
       <c r="D32" s="243"/>
@@ -6985,7 +6985,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="328"/>
+      <c r="A33" s="363"/>
       <c r="B33" s="26"/>
       <c r="C33" s="243"/>
       <c r="D33" s="245"/>
@@ -6997,7 +6997,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="328"/>
+      <c r="A34" s="363"/>
       <c r="B34" s="26"/>
       <c r="C34" s="243"/>
       <c r="D34" s="243"/>
@@ -7009,7 +7009,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="328"/>
+      <c r="A35" s="363"/>
       <c r="B35" s="26"/>
       <c r="C35" s="243"/>
       <c r="D35" s="243"/>
@@ -7021,7 +7021,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="328"/>
+      <c r="A36" s="363"/>
       <c r="B36" s="26"/>
       <c r="C36" s="243"/>
       <c r="D36" s="243"/>
@@ -7033,7 +7033,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="328"/>
+      <c r="A37" s="363"/>
       <c r="B37" s="26"/>
       <c r="C37" s="243"/>
       <c r="D37" s="243"/>
@@ -7045,7 +7045,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="328"/>
+      <c r="A38" s="363"/>
       <c r="B38" s="26"/>
       <c r="C38" s="243"/>
       <c r="D38" s="243"/>
@@ -7057,7 +7057,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="328"/>
+      <c r="A39" s="363"/>
       <c r="B39" s="26"/>
       <c r="C39" s="243"/>
       <c r="D39" s="243"/>
@@ -7069,7 +7069,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="328"/>
+      <c r="A40" s="363"/>
       <c r="B40" s="26"/>
       <c r="C40" s="243"/>
       <c r="D40" s="243"/>
@@ -7081,7 +7081,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="328"/>
+      <c r="A41" s="363"/>
       <c r="B41" s="26"/>
       <c r="C41" s="243"/>
       <c r="D41" s="243"/>
@@ -7093,7 +7093,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="328"/>
+      <c r="A42" s="363"/>
       <c r="B42" s="26"/>
       <c r="C42" s="243"/>
       <c r="D42" s="243"/>
@@ -7105,7 +7105,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="328"/>
+      <c r="A43" s="363"/>
       <c r="B43" s="26"/>
       <c r="C43" s="243"/>
       <c r="D43" s="243"/>
@@ -7117,7 +7117,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="328"/>
+      <c r="A44" s="363"/>
       <c r="B44" s="26"/>
       <c r="C44" s="243"/>
       <c r="D44" s="243"/>
@@ -7129,7 +7129,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="328"/>
+      <c r="A45" s="363"/>
       <c r="B45" s="26"/>
       <c r="C45" s="243"/>
       <c r="D45" s="243"/>
@@ -7141,7 +7141,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="328"/>
+      <c r="A46" s="363"/>
       <c r="B46" s="26"/>
       <c r="C46" s="243"/>
       <c r="D46" s="243"/>
@@ -7153,7 +7153,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="328"/>
+      <c r="A47" s="363"/>
       <c r="B47" s="26"/>
       <c r="C47" s="243"/>
       <c r="D47" s="243"/>
@@ -7165,7 +7165,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="328"/>
+      <c r="A48" s="363"/>
       <c r="B48" s="26"/>
       <c r="C48" s="243"/>
       <c r="D48" s="243"/>
@@ -7177,7 +7177,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="328"/>
+      <c r="A49" s="363"/>
       <c r="B49" s="26"/>
       <c r="C49" s="243"/>
       <c r="D49" s="243"/>
@@ -7189,7 +7189,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="328"/>
+      <c r="A50" s="363"/>
       <c r="B50" s="26"/>
       <c r="C50" s="243"/>
       <c r="D50" s="243"/>
@@ -7201,7 +7201,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="328"/>
+      <c r="A51" s="363"/>
       <c r="B51" s="26"/>
       <c r="C51" s="243"/>
       <c r="D51" s="243"/>
@@ -7213,7 +7213,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="328"/>
+      <c r="A52" s="363"/>
       <c r="B52" s="26"/>
       <c r="C52" s="243"/>
       <c r="D52" s="243"/>
@@ -7225,7 +7225,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="328"/>
+      <c r="A53" s="363"/>
       <c r="B53" s="26"/>
       <c r="C53" s="243"/>
       <c r="D53" s="243"/>
@@ -7237,7 +7237,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="328"/>
+      <c r="A54" s="363"/>
       <c r="B54" s="26"/>
       <c r="C54" s="243"/>
       <c r="D54" s="243"/>
@@ -7249,7 +7249,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="328"/>
+      <c r="A55" s="363"/>
       <c r="B55" s="26"/>
       <c r="C55" s="243"/>
       <c r="D55" s="243"/>
@@ -7260,7 +7260,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="328"/>
+      <c r="A56" s="363"/>
       <c r="B56" s="26"/>
       <c r="C56" s="243"/>
       <c r="D56" s="243"/>
@@ -7271,7 +7271,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="328"/>
+      <c r="A57" s="363"/>
       <c r="B57" s="26"/>
       <c r="C57" s="243"/>
       <c r="D57" s="243"/>
@@ -7282,7 +7282,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="328"/>
+      <c r="A58" s="363"/>
       <c r="B58" s="26"/>
       <c r="C58" s="243"/>
       <c r="D58" s="243"/>
@@ -7293,7 +7293,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="328"/>
+      <c r="A59" s="363"/>
       <c r="B59" s="26"/>
       <c r="C59" s="243"/>
       <c r="D59" s="243"/>
@@ -7304,7 +7304,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="328"/>
+      <c r="A60" s="363"/>
       <c r="B60" s="26"/>
       <c r="C60" s="243"/>
       <c r="D60" s="243"/>
@@ -7315,7 +7315,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="328"/>
+      <c r="A61" s="363"/>
       <c r="B61" s="26"/>
       <c r="C61" s="243"/>
       <c r="D61" s="243"/>
@@ -7326,7 +7326,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="328"/>
+      <c r="A62" s="363"/>
       <c r="B62" s="26"/>
       <c r="C62" s="243"/>
       <c r="D62" s="243"/>
@@ -7337,7 +7337,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="328"/>
+      <c r="A63" s="363"/>
       <c r="B63" s="26"/>
       <c r="C63" s="243"/>
       <c r="D63" s="243"/>
@@ -7348,7 +7348,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="328"/>
+      <c r="A64" s="363"/>
       <c r="B64" s="26"/>
       <c r="C64" s="243"/>
       <c r="D64" s="243"/>
@@ -7359,7 +7359,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="328"/>
+      <c r="A65" s="363"/>
       <c r="B65" s="26"/>
       <c r="C65" s="243"/>
       <c r="D65" s="243"/>
@@ -7370,7 +7370,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="328"/>
+      <c r="A66" s="363"/>
       <c r="B66" s="26"/>
       <c r="C66" s="243"/>
       <c r="D66" s="243"/>
@@ -7381,7 +7381,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="328"/>
+      <c r="A67" s="363"/>
       <c r="B67" s="26"/>
       <c r="C67" s="243"/>
       <c r="D67" s="243"/>
@@ -7392,7 +7392,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="328"/>
+      <c r="A68" s="363"/>
       <c r="B68" s="26"/>
       <c r="C68" s="243"/>
       <c r="D68" s="243"/>
@@ -7403,7 +7403,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="328"/>
+      <c r="A69" s="363"/>
       <c r="B69" s="26"/>
       <c r="C69" s="243"/>
       <c r="D69" s="243"/>
@@ -7414,7 +7414,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="328"/>
+      <c r="A70" s="363"/>
       <c r="B70" s="26"/>
       <c r="C70" s="243"/>
       <c r="D70" s="243"/>
@@ -7425,7 +7425,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="328"/>
+      <c r="A71" s="363"/>
       <c r="B71" s="26"/>
       <c r="C71" s="243"/>
       <c r="D71" s="243"/>
@@ -7436,7 +7436,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="328"/>
+      <c r="A72" s="363"/>
       <c r="B72" s="26"/>
       <c r="C72" s="243"/>
       <c r="D72" s="243"/>
@@ -7447,7 +7447,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="328"/>
+      <c r="A73" s="363"/>
       <c r="B73" s="26"/>
       <c r="C73" s="243"/>
       <c r="D73" s="243"/>
@@ -7458,7 +7458,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="328"/>
+      <c r="A74" s="363"/>
       <c r="B74" s="26"/>
       <c r="C74" s="243"/>
       <c r="D74" s="243"/>
@@ -7469,7 +7469,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="328"/>
+      <c r="A75" s="363"/>
       <c r="B75" s="26"/>
       <c r="C75" s="243"/>
       <c r="D75" s="243"/>
@@ -7480,7 +7480,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="328"/>
+      <c r="A76" s="363"/>
       <c r="B76" s="26"/>
       <c r="C76" s="243"/>
       <c r="D76" s="243"/>
@@ -7491,7 +7491,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="328"/>
+      <c r="A77" s="363"/>
       <c r="B77" s="26"/>
       <c r="C77" s="243"/>
       <c r="D77" s="243"/>
@@ -7502,7 +7502,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="328"/>
+      <c r="A78" s="363"/>
       <c r="B78" s="26"/>
       <c r="C78" s="243"/>
       <c r="D78" s="243"/>
@@ -7513,7 +7513,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="328"/>
+      <c r="A79" s="363"/>
       <c r="B79" s="26"/>
       <c r="C79" s="243"/>
       <c r="D79" s="243"/>
@@ -7525,7 +7525,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="328"/>
+      <c r="A80" s="363"/>
       <c r="B80" s="26"/>
       <c r="C80" s="243"/>
       <c r="D80" s="243"/>
@@ -7537,7 +7537,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="328"/>
+      <c r="A81" s="363"/>
       <c r="B81" s="26"/>
       <c r="C81" s="243"/>
       <c r="D81" s="243"/>
@@ -7549,7 +7549,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="328"/>
+      <c r="A82" s="363"/>
       <c r="B82" s="26"/>
       <c r="C82" s="243"/>
       <c r="D82" s="243"/>
@@ -7561,7 +7561,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="328"/>
+      <c r="A83" s="363"/>
       <c r="B83" s="31"/>
       <c r="C83" s="244">
         <f>SUM(C5:C72)</f>
@@ -7617,67 +7617,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="331" t="s">
+      <c r="A1" s="387" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="331"/>
-      <c r="C1" s="331"/>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
-      <c r="N1" s="331"/>
-      <c r="O1" s="331"/>
-      <c r="P1" s="331"/>
-      <c r="Q1" s="331"/>
+      <c r="B1" s="387"/>
+      <c r="C1" s="387"/>
+      <c r="D1" s="387"/>
+      <c r="E1" s="387"/>
+      <c r="F1" s="387"/>
+      <c r="G1" s="387"/>
+      <c r="H1" s="387"/>
+      <c r="I1" s="387"/>
+      <c r="J1" s="387"/>
+      <c r="K1" s="387"/>
+      <c r="L1" s="387"/>
+      <c r="M1" s="387"/>
+      <c r="N1" s="387"/>
+      <c r="O1" s="387"/>
+      <c r="P1" s="387"/>
+      <c r="Q1" s="387"/>
     </row>
     <row r="2" spans="1:24" s="62" customFormat="1" ht="18">
-      <c r="A2" s="332" t="s">
+      <c r="A2" s="388" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="332"/>
-      <c r="C2" s="332"/>
-      <c r="D2" s="332"/>
-      <c r="E2" s="332"/>
-      <c r="F2" s="332"/>
-      <c r="G2" s="332"/>
-      <c r="H2" s="332"/>
-      <c r="I2" s="332"/>
-      <c r="J2" s="332"/>
-      <c r="K2" s="332"/>
-      <c r="L2" s="332"/>
-      <c r="M2" s="332"/>
-      <c r="N2" s="332"/>
-      <c r="O2" s="332"/>
-      <c r="P2" s="332"/>
-      <c r="Q2" s="332"/>
+      <c r="B2" s="388"/>
+      <c r="C2" s="388"/>
+      <c r="D2" s="388"/>
+      <c r="E2" s="388"/>
+      <c r="F2" s="388"/>
+      <c r="G2" s="388"/>
+      <c r="H2" s="388"/>
+      <c r="I2" s="388"/>
+      <c r="J2" s="388"/>
+      <c r="K2" s="388"/>
+      <c r="L2" s="388"/>
+      <c r="M2" s="388"/>
+      <c r="N2" s="388"/>
+      <c r="O2" s="388"/>
+      <c r="P2" s="388"/>
+      <c r="Q2" s="388"/>
     </row>
     <row r="3" spans="1:24" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="333" t="s">
+      <c r="A3" s="389" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="334"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
-      <c r="F3" s="334"/>
-      <c r="G3" s="334"/>
-      <c r="H3" s="334"/>
-      <c r="I3" s="334"/>
-      <c r="J3" s="334"/>
-      <c r="K3" s="334"/>
-      <c r="L3" s="334"/>
-      <c r="M3" s="334"/>
-      <c r="N3" s="334"/>
-      <c r="O3" s="334"/>
-      <c r="P3" s="334"/>
-      <c r="Q3" s="335"/>
+      <c r="B3" s="390"/>
+      <c r="C3" s="390"/>
+      <c r="D3" s="390"/>
+      <c r="E3" s="390"/>
+      <c r="F3" s="390"/>
+      <c r="G3" s="390"/>
+      <c r="H3" s="390"/>
+      <c r="I3" s="390"/>
+      <c r="J3" s="390"/>
+      <c r="K3" s="390"/>
+      <c r="L3" s="390"/>
+      <c r="M3" s="390"/>
+      <c r="N3" s="390"/>
+      <c r="O3" s="390"/>
+      <c r="P3" s="390"/>
+      <c r="Q3" s="391"/>
       <c r="S3" s="47"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -7686,52 +7686,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="64" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="336" t="s">
+      <c r="A4" s="392" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="338" t="s">
+      <c r="B4" s="394" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="340" t="s">
+      <c r="C4" s="383" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="340" t="s">
+      <c r="D4" s="383" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="340" t="s">
+      <c r="E4" s="383" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="340" t="s">
+      <c r="F4" s="383" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="340" t="s">
+      <c r="G4" s="383" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="340" t="s">
+      <c r="H4" s="383" t="s">
         <v>171</v>
       </c>
-      <c r="I4" s="340" t="s">
+      <c r="I4" s="383" t="s">
         <v>190</v>
       </c>
-      <c r="J4" s="340" t="s">
+      <c r="J4" s="383" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="340" t="s">
+      <c r="K4" s="383" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="340" t="s">
+      <c r="L4" s="383" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="340" t="s">
+      <c r="M4" s="383" t="s">
         <v>163</v>
       </c>
-      <c r="N4" s="340" t="s">
+      <c r="N4" s="383" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="329" t="s">
+      <c r="O4" s="385" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="342" t="s">
+      <c r="P4" s="396" t="s">
         <v>169</v>
       </c>
       <c r="Q4" s="121" t="s">
@@ -7744,22 +7744,22 @@
       <c r="W4" s="66"/>
     </row>
     <row r="5" spans="1:24" s="64" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="337"/>
-      <c r="B5" s="339"/>
-      <c r="C5" s="341"/>
-      <c r="D5" s="341"/>
-      <c r="E5" s="341"/>
-      <c r="F5" s="341"/>
-      <c r="G5" s="341"/>
-      <c r="H5" s="341"/>
-      <c r="I5" s="341"/>
-      <c r="J5" s="341"/>
-      <c r="K5" s="341"/>
-      <c r="L5" s="341"/>
-      <c r="M5" s="341"/>
-      <c r="N5" s="341"/>
-      <c r="O5" s="330"/>
-      <c r="P5" s="343"/>
+      <c r="A5" s="393"/>
+      <c r="B5" s="395"/>
+      <c r="C5" s="384"/>
+      <c r="D5" s="384"/>
+      <c r="E5" s="384"/>
+      <c r="F5" s="384"/>
+      <c r="G5" s="384"/>
+      <c r="H5" s="384"/>
+      <c r="I5" s="384"/>
+      <c r="J5" s="384"/>
+      <c r="K5" s="384"/>
+      <c r="L5" s="384"/>
+      <c r="M5" s="384"/>
+      <c r="N5" s="384"/>
+      <c r="O5" s="386"/>
+      <c r="P5" s="397"/>
       <c r="Q5" s="122" t="s">
         <v>40</v>
       </c>
@@ -10823,6 +10823,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -10839,9 +10842,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -10882,15 +10882,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="349" t="s">
+      <c r="A1" s="403" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="349"/>
-      <c r="C1" s="349"/>
-      <c r="D1" s="349"/>
-      <c r="E1" s="349"/>
-      <c r="F1" s="349"/>
-      <c r="G1" s="349"/>
+      <c r="B1" s="403"/>
+      <c r="C1" s="403"/>
+      <c r="D1" s="403"/>
+      <c r="E1" s="403"/>
+      <c r="F1" s="403"/>
+      <c r="G1" s="403"/>
       <c r="H1" s="57"/>
       <c r="I1" s="138"/>
       <c r="J1" s="138"/>
@@ -10983,15 +10983,15 @@
       <c r="CS1" s="133"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="350" t="s">
+      <c r="A2" s="404" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="350"/>
-      <c r="C2" s="350"/>
-      <c r="D2" s="350"/>
-      <c r="E2" s="350"/>
-      <c r="F2" s="350"/>
-      <c r="G2" s="350"/>
+      <c r="B2" s="404"/>
+      <c r="C2" s="404"/>
+      <c r="D2" s="404"/>
+      <c r="E2" s="404"/>
+      <c r="F2" s="404"/>
+      <c r="G2" s="404"/>
       <c r="H2" s="57"/>
       <c r="I2" s="138"/>
       <c r="J2" s="138"/>
@@ -11084,15 +11084,15 @@
       <c r="CS2" s="133"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="351" t="s">
+      <c r="A3" s="405" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="351"/>
-      <c r="C3" s="351"/>
-      <c r="D3" s="351"/>
-      <c r="E3" s="351"/>
-      <c r="F3" s="351"/>
-      <c r="G3" s="351"/>
+      <c r="B3" s="405"/>
+      <c r="C3" s="405"/>
+      <c r="D3" s="405"/>
+      <c r="E3" s="405"/>
+      <c r="F3" s="405"/>
+      <c r="G3" s="405"/>
       <c r="H3" s="57"/>
       <c r="I3" s="138"/>
       <c r="J3" s="138"/>
@@ -14554,12 +14554,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="128"/>
-      <c r="B35" s="346" t="s">
+      <c r="B35" s="400" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="346"/>
-      <c r="D35" s="346"/>
-      <c r="E35" s="346"/>
+      <c r="C35" s="400"/>
+      <c r="D35" s="400"/>
+      <c r="E35" s="400"/>
       <c r="F35" s="129"/>
       <c r="G35" s="134"/>
       <c r="H35" s="134"/>
@@ -15094,10 +15094,10 @@
       <c r="A40" s="179" t="s">
         <v>178</v>
       </c>
-      <c r="B40" s="352" t="s">
+      <c r="B40" s="406" t="s">
         <v>202</v>
       </c>
-      <c r="C40" s="353"/>
+      <c r="C40" s="407"/>
       <c r="D40" s="203">
         <v>83230</v>
       </c>
@@ -15416,10 +15416,10 @@
       <c r="D43" s="203"/>
       <c r="E43" s="171"/>
       <c r="F43" s="129"/>
-      <c r="G43" s="347"/>
-      <c r="H43" s="347"/>
-      <c r="I43" s="347"/>
-      <c r="J43" s="347"/>
+      <c r="G43" s="401"/>
+      <c r="H43" s="401"/>
+      <c r="I43" s="401"/>
+      <c r="J43" s="401"/>
       <c r="K43" s="57"/>
       <c r="L43" s="138"/>
       <c r="M43" s="57"/>
@@ -23517,11 +23517,11 @@
       <c r="CS118" s="133"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="344" t="s">
+      <c r="A119" s="398" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="345"/>
-      <c r="C119" s="348"/>
+      <c r="B119" s="399"/>
+      <c r="C119" s="402"/>
       <c r="D119" s="207">
         <f>SUM(D37:D118)</f>
         <v>3389290</v>
@@ -23726,11 +23726,11 @@
       <c r="CS120" s="133"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="344" t="s">
+      <c r="A121" s="398" t="s">
         <v>28</v>
       </c>
-      <c r="B121" s="345"/>
-      <c r="C121" s="345"/>
+      <c r="B121" s="399"/>
+      <c r="C121" s="399"/>
       <c r="D121" s="207">
         <f>D119+M121</f>
         <v>3389290</v>
@@ -34965,8 +34965,8 @@
   </sheetPr>
   <dimension ref="A1:R220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34986,25 +34986,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="357" t="s">
+      <c r="A1" s="411" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="358"/>
-      <c r="C1" s="358"/>
-      <c r="D1" s="358"/>
-      <c r="E1" s="359"/>
+      <c r="B1" s="412"/>
+      <c r="C1" s="412"/>
+      <c r="D1" s="412"/>
+      <c r="E1" s="413"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="366" t="s">
+      <c r="A2" s="420" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="367"/>
-      <c r="C2" s="367"/>
-      <c r="D2" s="367"/>
-      <c r="E2" s="368"/>
+      <c r="B2" s="421"/>
+      <c r="C2" s="421"/>
+      <c r="D2" s="421"/>
+      <c r="E2" s="422"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -35014,16 +35014,16 @@
       <c r="J2" s="297">
         <v>36790</v>
       </c>
-      <c r="K2" s="434"/>
+      <c r="K2" s="355"/>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="360" t="s">
+      <c r="A3" s="414" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="361"/>
-      <c r="C3" s="361"/>
-      <c r="D3" s="361"/>
-      <c r="E3" s="362"/>
+      <c r="B3" s="415"/>
+      <c r="C3" s="415"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="416"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -35039,13 +35039,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="369" t="s">
+      <c r="A4" s="423" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="370"/>
-      <c r="C4" s="370"/>
-      <c r="D4" s="370"/>
-      <c r="E4" s="371"/>
+      <c r="B4" s="424"/>
+      <c r="C4" s="424"/>
+      <c r="D4" s="424"/>
+      <c r="E4" s="425"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -35142,13 +35142,13 @@
       <c r="F7" s="7"/>
       <c r="G7" s="251"/>
       <c r="H7" s="251"/>
-      <c r="I7" s="415" t="s">
+      <c r="I7" s="341" t="s">
         <v>278</v>
       </c>
-      <c r="J7" s="416">
+      <c r="J7" s="342">
         <v>78960</v>
       </c>
-      <c r="K7" s="415" t="s">
+      <c r="K7" s="341" t="s">
         <v>205</v>
       </c>
       <c r="L7" s="7"/>
@@ -35172,13 +35172,13 @@
       <c r="F8" s="7"/>
       <c r="G8" s="231"/>
       <c r="H8" s="231"/>
-      <c r="I8" s="415" t="s">
+      <c r="I8" s="341" t="s">
         <v>279</v>
       </c>
-      <c r="J8" s="416">
+      <c r="J8" s="342">
         <v>7990</v>
       </c>
-      <c r="K8" s="415" t="s">
+      <c r="K8" s="341" t="s">
         <v>205</v>
       </c>
       <c r="L8" s="7"/>
@@ -35202,13 +35202,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="108"/>
       <c r="H9" s="108"/>
-      <c r="I9" s="415" t="s">
+      <c r="I9" s="341" t="s">
         <v>276</v>
       </c>
-      <c r="J9" s="416">
+      <c r="J9" s="342">
         <v>17950</v>
       </c>
-      <c r="K9" s="415" t="s">
+      <c r="K9" s="341" t="s">
         <v>209</v>
       </c>
       <c r="L9" s="7"/>
@@ -35236,13 +35236,13 @@
       <c r="F10" s="7"/>
       <c r="G10" s="231"/>
       <c r="H10" s="231"/>
-      <c r="I10" s="415" t="s">
+      <c r="I10" s="341" t="s">
         <v>280</v>
       </c>
-      <c r="J10" s="416">
+      <c r="J10" s="342">
         <v>53280</v>
       </c>
-      <c r="K10" s="415" t="s">
+      <c r="K10" s="341" t="s">
         <v>205</v>
       </c>
       <c r="L10" s="7"/>
@@ -35261,22 +35261,22 @@
         <v>0</v>
       </c>
       <c r="C11" s="39"/>
-      <c r="D11" s="433" t="s">
+      <c r="D11" s="354" t="s">
         <v>232</v>
       </c>
-      <c r="E11" s="432">
+      <c r="E11" s="353">
         <v>18840</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="231"/>
       <c r="H11" s="231"/>
-      <c r="I11" s="416" t="s">
+      <c r="I11" s="342" t="s">
         <v>230</v>
       </c>
-      <c r="J11" s="416">
+      <c r="J11" s="342">
         <v>98768</v>
       </c>
-      <c r="K11" s="416" t="s">
+      <c r="K11" s="342" t="s">
         <v>205</v>
       </c>
       <c r="L11" s="7"/>
@@ -35296,10 +35296,10 @@
         <v>295857</v>
       </c>
       <c r="C12" s="39"/>
-      <c r="D12" s="433" t="s">
+      <c r="D12" s="354" t="s">
         <v>282</v>
       </c>
-      <c r="E12" s="432">
+      <c r="E12" s="353">
         <v>54900</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -35307,13 +35307,13 @@
       </c>
       <c r="G12" s="231"/>
       <c r="H12" s="232"/>
-      <c r="I12" s="416" t="s">
+      <c r="I12" s="342" t="s">
         <v>231</v>
       </c>
-      <c r="J12" s="416">
+      <c r="J12" s="342">
         <v>112954</v>
       </c>
-      <c r="K12" s="416" t="s">
+      <c r="K12" s="342" t="s">
         <v>205</v>
       </c>
       <c r="N12" s="7"/>
@@ -35326,20 +35326,20 @@
       <c r="A13" s="267"/>
       <c r="B13" s="240"/>
       <c r="C13" s="39"/>
-      <c r="D13" s="433" t="s">
+      <c r="D13" s="354" t="s">
         <v>198</v>
       </c>
-      <c r="E13" s="432">
+      <c r="E13" s="353">
         <v>146300</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="435" t="s">
+      <c r="G13" s="356" t="s">
         <v>283</v>
       </c>
       <c r="H13" s="233"/>
-      <c r="I13" s="416"/>
-      <c r="J13" s="416"/>
-      <c r="K13" s="416"/>
+      <c r="I13" s="342"/>
+      <c r="J13" s="342"/>
+      <c r="K13" s="342"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -35347,27 +35347,27 @@
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="21.75">
-      <c r="A14" s="377" t="s">
+      <c r="A14" s="325" t="s">
         <v>224</v>
       </c>
-      <c r="B14" s="378">
+      <c r="B14" s="326">
         <v>3000000</v>
       </c>
       <c r="C14" s="39"/>
-      <c r="D14" s="433" t="s">
+      <c r="D14" s="354" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="432">
+      <c r="E14" s="353">
         <v>13500</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="436" t="s">
+      <c r="G14" s="357" t="s">
         <v>284</v>
       </c>
       <c r="H14" s="233"/>
-      <c r="I14" s="416"/>
-      <c r="J14" s="416"/>
-      <c r="K14" s="416"/>
+      <c r="I14" s="342"/>
+      <c r="J14" s="342"/>
+      <c r="K14" s="342"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -35378,18 +35378,18 @@
       <c r="A15" s="267"/>
       <c r="B15" s="240"/>
       <c r="C15" s="39"/>
-      <c r="D15" s="433" t="s">
+      <c r="D15" s="354" t="s">
         <v>158</v>
       </c>
-      <c r="E15" s="432">
+      <c r="E15" s="353">
         <v>12250</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="416"/>
-      <c r="J15" s="416"/>
-      <c r="K15" s="416"/>
+      <c r="I15" s="342"/>
+      <c r="J15" s="342"/>
+      <c r="K15" s="342"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -35418,9 +35418,9 @@
         <v>0</v>
       </c>
       <c r="H16" s="322"/>
-      <c r="I16" s="415"/>
-      <c r="J16" s="416"/>
-      <c r="K16" s="415"/>
+      <c r="I16" s="341"/>
+      <c r="J16" s="342"/>
+      <c r="K16" s="341"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -35439,9 +35439,9 @@
       <c r="F17" s="5"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="415"/>
-      <c r="J17" s="416"/>
-      <c r="K17" s="415"/>
+      <c r="I17" s="341"/>
+      <c r="J17" s="342"/>
+      <c r="K17" s="341"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -35451,13 +35451,13 @@
       <c r="R17" s="7"/>
     </row>
     <row r="18" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A18" s="363" t="s">
+      <c r="A18" s="417" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="364"/>
-      <c r="C18" s="364"/>
-      <c r="D18" s="364"/>
-      <c r="E18" s="365"/>
+      <c r="B18" s="418"/>
+      <c r="C18" s="418"/>
+      <c r="D18" s="418"/>
+      <c r="E18" s="419"/>
       <c r="F18" s="5"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -35740,10 +35740,10 @@
         <v>10000</v>
       </c>
       <c r="C29" s="310"/>
-      <c r="D29" s="437" t="s">
+      <c r="D29" s="358" t="s">
         <v>227</v>
       </c>
-      <c r="E29" s="438">
+      <c r="E29" s="359">
         <v>83230</v>
       </c>
       <c r="I29" s="7"/>
@@ -35765,10 +35765,10 @@
         <v>155300</v>
       </c>
       <c r="C30" s="310"/>
-      <c r="D30" s="437" t="s">
+      <c r="D30" s="358" t="s">
         <v>189</v>
       </c>
-      <c r="E30" s="438">
+      <c r="E30" s="359">
         <v>33130</v>
       </c>
       <c r="I30" s="7"/>
@@ -35790,10 +35790,10 @@
         <v>100000</v>
       </c>
       <c r="C31" s="310"/>
-      <c r="D31" s="437" t="s">
+      <c r="D31" s="358" t="s">
         <v>179</v>
       </c>
-      <c r="E31" s="438">
+      <c r="E31" s="359">
         <v>132540</v>
       </c>
       <c r="I31" s="7"/>
@@ -35808,13 +35808,13 @@
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" ht="21" thickBot="1">
-      <c r="A32" s="354" t="s">
+      <c r="A32" s="408" t="s">
         <v>275</v>
       </c>
-      <c r="B32" s="355"/>
-      <c r="C32" s="355"/>
-      <c r="D32" s="355"/>
-      <c r="E32" s="356"/>
+      <c r="B32" s="409"/>
+      <c r="C32" s="409"/>
+      <c r="D32" s="409"/>
+      <c r="E32" s="410"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -38643,25 +38643,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="372" t="s">
+      <c r="A2" s="431" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="373"/>
-      <c r="C2" s="374"/>
-      <c r="E2" s="425" t="s">
+      <c r="B2" s="432"/>
+      <c r="C2" s="433"/>
+      <c r="E2" s="349" t="s">
         <v>254</v>
       </c>
-      <c r="F2" s="425" t="s">
+      <c r="F2" s="349" t="s">
         <v>255</v>
       </c>
-      <c r="G2" s="425" t="s">
+      <c r="G2" s="349" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="422" t="s">
+      <c r="I2" s="436" t="s">
         <v>244</v>
       </c>
-      <c r="J2" s="422"/>
-      <c r="K2" s="422"/>
+      <c r="J2" s="436"/>
+      <c r="K2" s="436"/>
     </row>
     <row r="3" spans="1:11" ht="38.25">
       <c r="A3" s="258" t="s">
@@ -38673,13 +38673,13 @@
       <c r="C3" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="420" t="s">
+      <c r="E3" s="346" t="s">
         <v>259</v>
       </c>
-      <c r="F3" s="421" t="s">
+      <c r="F3" s="347" t="s">
         <v>273</v>
       </c>
-      <c r="G3" s="417">
+      <c r="G3" s="343">
         <v>40320</v>
       </c>
       <c r="I3" s="258" t="s">
@@ -38702,20 +38702,20 @@
       <c r="C4" s="305">
         <v>1920</v>
       </c>
-      <c r="E4" s="412" t="s">
+      <c r="E4" s="427" t="s">
         <v>259</v>
       </c>
-      <c r="F4" s="413" t="s">
+      <c r="F4" s="428" t="s">
         <v>274</v>
       </c>
-      <c r="G4" s="414">
+      <c r="G4" s="429">
         <v>12960</v>
       </c>
-      <c r="H4" s="418"/>
+      <c r="H4" s="344"/>
       <c r="I4" s="305" t="s">
         <v>239</v>
       </c>
-      <c r="J4" s="381" t="s">
+      <c r="J4" s="329" t="s">
         <v>243</v>
       </c>
       <c r="K4" s="305">
@@ -38732,10 +38732,10 @@
       <c r="C5" s="305">
         <v>1920</v>
       </c>
-      <c r="E5" s="412"/>
-      <c r="F5" s="413"/>
-      <c r="G5" s="414"/>
-      <c r="H5" s="419"/>
+      <c r="E5" s="427"/>
+      <c r="F5" s="428"/>
+      <c r="G5" s="429"/>
+      <c r="H5" s="345"/>
       <c r="I5" s="305"/>
       <c r="J5" s="305"/>
       <c r="K5" s="305"/>
@@ -38750,9 +38750,9 @@
       <c r="C6" s="305">
         <v>2400</v>
       </c>
-      <c r="E6" s="412"/>
-      <c r="F6" s="413"/>
-      <c r="G6" s="414"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="428"/>
+      <c r="G6" s="429"/>
       <c r="H6" s="2"/>
       <c r="I6" s="305"/>
       <c r="J6" s="305"/>
@@ -38772,7 +38772,7 @@
         <v>260</v>
       </c>
       <c r="F7" s="426"/>
-      <c r="G7" s="382">
+      <c r="G7" s="330">
         <f>SUM(G3:G6)</f>
         <v>53280</v>
       </c>
@@ -38791,11 +38791,11 @@
       <c r="C8" s="305">
         <v>1440</v>
       </c>
-      <c r="E8" s="427" t="s">
+      <c r="E8" s="430" t="s">
         <v>281</v>
       </c>
-      <c r="F8" s="427"/>
-      <c r="G8" s="428">
+      <c r="F8" s="430"/>
+      <c r="G8" s="350">
         <f>C21</f>
         <v>16320</v>
       </c>
@@ -38814,11 +38814,11 @@
       <c r="C9" s="305">
         <v>7680</v>
       </c>
-      <c r="E9" s="429" t="s">
+      <c r="E9" s="438" t="s">
         <v>277</v>
       </c>
-      <c r="F9" s="429"/>
-      <c r="G9" s="382">
+      <c r="F9" s="438"/>
+      <c r="G9" s="330">
         <f>G7-G8</f>
         <v>36960</v>
       </c>
@@ -38830,7 +38830,7 @@
       <c r="A10" s="305"/>
       <c r="B10" s="305"/>
       <c r="C10" s="305"/>
-      <c r="E10" s="418"/>
+      <c r="E10" s="344"/>
       <c r="F10" s="106"/>
       <c r="G10" s="106"/>
       <c r="I10" s="257"/>
@@ -38841,7 +38841,7 @@
       <c r="A11" s="305"/>
       <c r="B11" s="305"/>
       <c r="C11" s="305"/>
-      <c r="E11" s="418"/>
+      <c r="E11" s="344"/>
       <c r="F11" s="106"/>
       <c r="G11" s="106"/>
       <c r="I11" s="257"/>
@@ -38852,7 +38852,7 @@
       <c r="A12" s="305"/>
       <c r="B12" s="305"/>
       <c r="C12" s="305"/>
-      <c r="E12" s="418"/>
+      <c r="E12" s="344"/>
       <c r="F12" s="106"/>
       <c r="G12" s="106"/>
       <c r="I12" s="257"/>
@@ -38866,7 +38866,7 @@
       <c r="E13" s="106"/>
       <c r="F13" s="106"/>
       <c r="G13" s="106"/>
-      <c r="H13" s="418"/>
+      <c r="H13" s="344"/>
       <c r="I13" s="305"/>
       <c r="J13" s="305"/>
       <c r="K13" s="305"/>
@@ -38877,11 +38877,11 @@
       <c r="C14" s="305"/>
       <c r="E14" s="106"/>
       <c r="F14" s="106"/>
-      <c r="I14" s="423" t="s">
+      <c r="I14" s="437" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="423"/>
-      <c r="K14" s="424">
+      <c r="J14" s="437"/>
+      <c r="K14" s="348">
         <f>SUM(K4:K13)</f>
         <v>20000</v>
       </c>
@@ -38917,10 +38917,10 @@
       <c r="C20" s="305"/>
     </row>
     <row r="21" spans="1:3" ht="15.75">
-      <c r="A21" s="375" t="s">
+      <c r="A21" s="434" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="376"/>
+      <c r="B21" s="435"/>
       <c r="C21" s="319">
         <f>SUM(C4:C20)</f>
         <v>16320</v>
@@ -38928,16 +38928,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
